--- a/Formulaire de dépôt.xlsx
+++ b/Formulaire de dépôt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherifa/Library/CloudStorage/OneDrive-Efrei/Documents/Cours EFREI/2025-2026/PEX/XICS403/Projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\FORT_BOYARD_SIMULATOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00109C43-4D1C-564C-81B8-051C5973FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0764EC76-383E-43FA-8C91-11CBC08EB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18380" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="4" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Critères</t>
   </si>
   <si>
-    <t>[Réponse]</t>
-  </si>
-  <si>
     <t>main.py</t>
   </si>
   <si>
@@ -87,110 +84,6 @@
   </si>
   <si>
     <t>Nom du Groupe</t>
-  </si>
-  <si>
-    <r>
-      <t>[Indiquez les noms des fonctions implémentées dans ce fichier par le</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> membre 1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Indiquez les noms des fonctions implémentées dans ce fichier par le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>membre 2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Indiquez les noms des fonctions implémentées dans ce fichier par le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>membre 3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[Indiquez les noms des fonctions implémentées dans ce fichier par le</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> membre 4</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
   </si>
   <si>
     <r>
@@ -219,32 +112,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Indiquez les noms des fonctions implémentées dans ce fichier par le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>membre 6</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
-  </si>
-  <si>
     <t>[Indiquez les fonctions concernées]</t>
   </si>
   <si>
@@ -258,21 +125,6 @@
     <t>Autes fonctions ajoutées</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom Membre 1 </t>
-  </si>
-  <si>
-    <t>Nom Membre 2</t>
-  </si>
-  <si>
-    <t>Nom Membre 3</t>
-  </si>
-  <si>
-    <t>Nom Membre 4</t>
-  </si>
-  <si>
-    <t>Nom Membre 5</t>
-  </si>
-  <si>
     <t>Nom Membre 6</t>
   </si>
   <si>
@@ -306,14 +158,71 @@
     <t>Mentionnez toute fonction supplémentaire (non demandée dans le projet) créée par le membre concerné</t>
   </si>
   <si>
-    <t>[Réponse] (celui qui a crée le dépôt sur gitHub)</t>
+    <t>Cyril Dabernard</t>
+  </si>
+  <si>
+    <t>Loic Saffo Socning</t>
+  </si>
+  <si>
+    <t>Rayane Gareh</t>
+  </si>
+  <si>
+    <t>Axil Meddahi</t>
+  </si>
+  <si>
+    <t>Clement Vienot</t>
+  </si>
+  <si>
+    <t>Youcef</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher_equipe, calculer_total_cles, main, </t>
+  </si>
+  <si>
+    <t>enregistrer_historique</t>
+  </si>
+  <si>
+    <t>Aucune</t>
+  </si>
+  <si>
+    <t>introduction, composer_equipe, menu_epreuves, choisir_joueur</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>epreuve_math, epreuve_roulette_mathematique, epreuve_math_premier, premier_plus_proche, est_premier, epreuve_math_equation, resoudre_equation_lineaire, epreuve_math_factorielle, factorielle</t>
+  </si>
+  <si>
+    <t>jeu_lance_des, bonneteau, epreuve_hasard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non </t>
+  </si>
+  <si>
+    <t>salle_de_tresor</t>
+  </si>
+  <si>
+    <t>charger_enigmes, enigme_pere_fouras</t>
+  </si>
+  <si>
+    <t>enregister_historique</t>
+  </si>
+  <si>
+    <t>Snowfall</t>
+  </si>
+  <si>
+    <t>https://github.com/ranelden/FORT_BOYARD_SIMULATOR/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +280,14 @@
       <color rgb="FFC00000"/>
       <name val="Calibri (Corps)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -500,10 +417,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -552,8 +470,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -873,113 +795,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D512BAB-292A-D945-AF60-7F49E0D307FB}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
     <col min="7" max="7" width="36.5" customWidth="1"/>
-    <col min="8" max="8" width="86.6640625" customWidth="1"/>
+    <col min="8" max="8" width="86.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -988,267 +910,272 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="5" t="str">
+        <f>+B3</f>
+        <v>Cyril Dabernard</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>+B4</f>
+        <v>Loic Saffo Socning</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>+B5</f>
+        <v>Rayane Gareh</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f>+B7</f>
+        <v>Clement Vienot</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f>+B8</f>
+        <v>Youcef</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="74.099999999999994" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="74.099999999999994" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.099999999999994" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="84" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="65.099999999999994" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="42" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="24" spans="1:8" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A12:G12"/>
@@ -1257,21 +1184,14 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{18B03D0E-151F-4F2A-B86A-164F732B3EC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c236c89c-cb28-446f-abf1-caea36bbabb6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C25E3799BB97BB429FAE78553C7DC8A3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1589e9c81b3f1dd05e3473d4e0614d02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c236c89c-cb28-446f-abf1-caea36bbabb6" xmlns:ns3="5c74b9f2-105f-4ddf-9d81-4f36a5c02d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e04b009eaae1dd7365d26908f5e22f8" ns2:_="" ns3:_="">
     <xsd:import namespace="c236c89c-cb28-446f-abf1-caea36bbabb6"/>
@@ -1482,6 +1402,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c236c89c-cb28-446f-abf1-caea36bbabb6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1492,23 +1422,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90BB40-EACC-4BE6-B342-3F14ABFB9970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c236c89c-cb28-446f-abf1-caea36bbabb6"/>
-    <ds:schemaRef ds:uri="5c74b9f2-105f-4ddf-9d81-4f36a5c02d46"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E968AD3B-680D-4A81-9DD7-9B1B81EAB739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,6 +1440,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90BB40-EACC-4BE6-B342-3F14ABFB9970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c236c89c-cb28-446f-abf1-caea36bbabb6"/>
+    <ds:schemaRef ds:uri="5c74b9f2-105f-4ddf-9d81-4f36a5c02d46"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
   <ds:schemaRefs>

--- a/Formulaire de dépôt.xlsx
+++ b/Formulaire de dépôt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\FORT_BOYARD_SIMULATOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0764EC76-383E-43FA-8C91-11CBC08EB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A80DA-5B84-46C4-ACD6-9C38D3659FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="4" r:id="rId1"/>
@@ -443,6 +443,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,9 +471,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D512BAB-292A-D945-AF60-7F49E0D307FB}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
@@ -812,10 +812,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -826,62 +826,62 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
@@ -895,20 +895,20 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
@@ -1403,6 +1403,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c236c89c-cb28-446f-abf1-caea36bbabb6">
@@ -1410,15 +1419,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,6 +1441,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90BB40-EACC-4BE6-B342-3F14ABFB9970}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1455,12 +1463,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Formulaire de dépôt.xlsx
+++ b/Formulaire de dépôt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\FORT_BOYARD_SIMULATOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A80DA-5B84-46C4-ACD6-9C38D3659FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DA478-13E0-43AD-8D16-42184DBDDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Critères</t>
   </si>
@@ -86,36 +86,7 @@
     <t>Nom du Groupe</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Indiquez les noms des fonctions implémentées dans ce fichier par le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>membre 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, sinon écrivez 'Aucune' .]</t>
-    </r>
-  </si>
-  <si>
     <t>[Indiquez les fonctions concernées]</t>
-  </si>
-  <si>
-    <t>[oui ou non]</t>
   </si>
   <si>
     <t>Chaque membre doit indiquer son nom et saisir la liste des fonctions qu’il a implémentées par module dans la partie répartition. 
@@ -123,9 +94,6 @@
   </si>
   <si>
     <t>Autes fonctions ajoutées</t>
-  </si>
-  <si>
-    <t>Nom Membre 6</t>
   </si>
   <si>
     <t>Remplacez par les noms et prénoms des membres du groupe.</t>
@@ -222,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,13 +234,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Corps)"/>
     </font>
     <font>
       <b/>
@@ -419,7 +380,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -443,7 +404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D512BAB-292A-D945-AF60-7F49E0D307FB}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
@@ -830,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -841,7 +802,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -850,7 +811,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -859,7 +820,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
@@ -868,7 +829,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
@@ -877,7 +838,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -888,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -896,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25">
@@ -935,10 +896,10 @@
         <v>Youcef</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1">
@@ -946,25 +907,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="72" customHeight="1">
@@ -972,25 +933,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="74.099999999999994" customHeight="1">
@@ -998,25 +959,25 @@
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="74.099999999999994" customHeight="1">
@@ -1024,25 +985,25 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="71.099999999999994" customHeight="1">
@@ -1050,25 +1011,25 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="84" customHeight="1">
@@ -1076,25 +1037,25 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="65.099999999999994" customHeight="1">
@@ -1102,25 +1063,25 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
@@ -1128,51 +1089,51 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1"/>
@@ -1403,15 +1364,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c236c89c-cb28-446f-abf1-caea36bbabb6">
@@ -1419,6 +1371,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,14 +1402,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90BB40-EACC-4BE6-B342-3F14ABFB9970}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1463,4 +1416,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Formulaire de dépôt.xlsx
+++ b/Formulaire de dépôt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\FORT_BOYARD_SIMULATOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DA478-13E0-43AD-8D16-42184DBDDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55826106-AFDB-47DE-A247-74BA1B021C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8777C342-B2A2-AA44-A350-92F346BCACCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Critères</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>https://github.com/ranelden/FORT_BOYARD_SIMULATOR/</t>
+  </si>
+  <si>
+    <t>init, tour_navale, gagne_navale, jeu_bataille_navale, epreuve_logique, demande_position, affiche_grille_navale, grille_vide, suiv, jeu_tictactoe, tour_maitre_morpion, tour_joueur, coup_maitre,  grille_complete, verifier_victoire, affiche_grille_morpion, jeu_nim, maitre_retrait, joueur_retrait, affiche_batonnets</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D512BAB-292A-D945-AF60-7F49E0D307FB}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C19" activeCellId="1" sqref="B18 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
@@ -1011,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>38</v>
@@ -1364,6 +1367,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c236c89c-cb28-446f-abf1-caea36bbabb6">
@@ -1371,15 +1383,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,6 +1405,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90BB40-EACC-4BE6-B342-3F14ABFB9970}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1416,12 +1427,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D90C047-7704-4327-B6F5-04DA2C78DC65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>